--- a/src/main/resources/templates/NewsTemplate.xlsx
+++ b/src/main/resources/templates/NewsTemplate.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xiaoYe\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\workSpace\springCloud20200115\springBootDemo\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6131F0C-E4F6-4EDA-8250-D69708E94546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13FF6F94-7689-4A13-A6A5-2FC8101BF3F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -120,11 +120,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>消息类型</t>
+    <t>持续</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>持续</t>
+    <t>关键词</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -507,7 +507,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -526,7 +526,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>8</v>
@@ -535,7 +535,7 @@
         <v>4</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>1</v>
